--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476843.440375429</v>
+        <v>1474148.587115474</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12436699.94224556</v>
+        <v>12436666.27081003</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10569440.90713049</v>
+        <v>10570277.72159102</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>25.67913628361563</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>233.6084191422256</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>113.4717443368916</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>143.6532611603619</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>17.06972224389786</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>144.3781879633055</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>110.5306577692685</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0198440937147</v>
+        <v>383.4773344784372</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825858</v>
+        <v>12.41971906875771</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520077</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980478</v>
+        <v>143.3232867394217</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937147</v>
+        <v>230.0064299614205</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.63492518706303</v>
+        <v>29.42955821272847</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>46.70465703322583</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>102.2923068536743</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629795</v>
+        <v>116.559737650565</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97853542247806</v>
+        <v>1.928326488848242</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714492</v>
+        <v>119.1453906001063</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>20.17213722672948</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>219.2081718582</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>36.29948086284261</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.975292544772459</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>15.32517917036706</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>19.53007201344988</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>96.15636898111893</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>201.4146274292355</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>86.64179915749276</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>8.282546271489977</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.1755448080702</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4529121465558</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>251.2517018563085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672551</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4607323328459</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>48.32705811795907</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>116.1674918513756</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658672531</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>60.48823882226369</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428134</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>34.32106446353055</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>72.80978492054801</v>
+        <v>1.086211731109629</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428173</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8253826161911274</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>140.9357387834172</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788180001</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773586</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>159.2661870898836</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797021</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>30.85302310518062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085811982</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>174.8493187430266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833791</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089722</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>132.6315337216683</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.98113264792562</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="C2" t="n">
-        <v>53.98113264792562</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="D2" t="n">
-        <v>53.98113264792562</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="E2" t="n">
-        <v>53.98113264792562</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F2" t="n">
-        <v>47.03563189872214</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822816</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>320.3587892151036</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W2" t="n">
-        <v>53.98113264792562</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X2" t="n">
-        <v>53.98113264792562</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.98113264792562</v>
+        <v>410.8916005921556</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>773.2654142440368</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C3" t="n">
-        <v>598.8123849629098</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>773.2654142440368</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>773.2654142440368</v>
+        <v>891.415332010429</v>
       </c>
       <c r="X3" t="n">
-        <v>773.2654142440368</v>
+        <v>683.5638318048962</v>
       </c>
       <c r="Y3" t="n">
-        <v>773.2654142440368</v>
+        <v>475.8035330399423</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.483378107689</v>
+        <v>780.2264383424191</v>
       </c>
       <c r="C4" t="n">
-        <v>498.483378107689</v>
+        <v>780.2264383424191</v>
       </c>
       <c r="D4" t="n">
-        <v>348.3667386953532</v>
+        <v>630.1097989300833</v>
       </c>
       <c r="E4" t="n">
-        <v>200.4536451129601</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="F4" t="n">
-        <v>53.56369761504973</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G4" t="n">
-        <v>53.56369761504973</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H4" t="n">
-        <v>53.56369761504973</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512191</v>
+        <v>780.2264383424191</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512191</v>
+        <v>780.2264383424191</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512191</v>
+        <v>780.2264383424191</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.483378107689</v>
+        <v>780.2264383424191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000.38320668621</v>
+        <v>430.5742004423103</v>
       </c>
       <c r="C5" t="n">
-        <v>888.7360776263426</v>
+        <v>430.5742004423103</v>
       </c>
       <c r="D5" t="n">
-        <v>530.4703790195922</v>
+        <v>430.5742004423103</v>
       </c>
       <c r="E5" t="n">
-        <v>530.4703790195922</v>
+        <v>430.5742004423103</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5816476117996</v>
+        <v>43.22335753479792</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438616</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438616</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749718</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281378</v>
+        <v>93.68840227144221</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452972</v>
+        <v>238.8628998582993</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192541</v>
+        <v>455.8664631799367</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494206</v>
+        <v>728.9941769296671</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730199</v>
+        <v>1011.155191012935</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145365</v>
+        <v>1264.256574219954</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739594</v>
+        <v>1445.771748220735</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="S5" t="n">
-        <v>1387.271938094003</v>
+        <v>1389.138341207262</v>
       </c>
       <c r="T5" t="n">
-        <v>1387.271938094003</v>
+        <v>1389.138341207262</v>
       </c>
       <c r="U5" t="n">
-        <v>1387.271938094003</v>
+        <v>1389.138341207262</v>
       </c>
       <c r="V5" t="n">
-        <v>1387.271938094003</v>
+        <v>1389.138341207262</v>
       </c>
       <c r="W5" t="n">
-        <v>1387.271938094003</v>
+        <v>1036.369685937148</v>
       </c>
       <c r="X5" t="n">
-        <v>1387.271938094003</v>
+        <v>662.9039276760684</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000.38320668621</v>
+        <v>430.5742004423103</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
       <c r="C6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
       <c r="D6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
       <c r="E6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
       <c r="F6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
       <c r="G6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
       <c r="H6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749718</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835613</v>
+        <v>49.38879249773424</v>
       </c>
       <c r="K6" t="n">
-        <v>387.8643287482159</v>
+        <v>388.61489276701</v>
       </c>
       <c r="L6" t="n">
-        <v>582.0938474613414</v>
+        <v>583.0264977200784</v>
       </c>
       <c r="M6" t="n">
-        <v>828.1074027572778</v>
+        <v>829.2525390695751</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741464</v>
+        <v>1096.404095980888</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.013008851465</v>
+        <v>1318.575783062975</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705191</v>
+        <v>1477.555082704998</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374859</v>
+        <v>1533.909337913749</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525664</v>
+        <v>1389.433615255036</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163161</v>
+        <v>1193.527386733632</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034465</v>
+        <v>965.4062771662096</v>
       </c>
       <c r="V6" t="n">
-        <v>728.4048090717038</v>
+        <v>730.2541689344669</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1674523435021</v>
+        <v>476.0168122062652</v>
       </c>
       <c r="X6" t="n">
-        <v>266.3159521379693</v>
+        <v>268.1653120007324</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.55565337301539</v>
+        <v>60.40501323577848</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>568.9965889070166</v>
+        <v>365.9210935335353</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9965889070166</v>
+        <v>365.9210935335353</v>
       </c>
       <c r="D7" t="n">
-        <v>568.9965889070166</v>
+        <v>365.9210935335353</v>
       </c>
       <c r="E7" t="n">
-        <v>568.9965889070166</v>
+        <v>365.9210935335353</v>
       </c>
       <c r="F7" t="n">
-        <v>422.1066414091063</v>
+        <v>318.7446722878526</v>
       </c>
       <c r="G7" t="n">
-        <v>253.7243518094486</v>
+        <v>150.3631000304096</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3987893309896</v>
+        <v>150.3631000304096</v>
       </c>
       <c r="I7" t="n">
-        <v>32.6401081562629</v>
+        <v>32.62599129246512</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749718</v>
+        <v>30.67818675827498</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747002</v>
+        <v>157.3778790199915</v>
       </c>
       <c r="L7" t="n">
-        <v>374.813488791462</v>
+        <v>375.0362985406463</v>
       </c>
       <c r="M7" t="n">
-        <v>614.582688343769</v>
+        <v>614.9157070573551</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630868</v>
+        <v>854.5259358182304</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109133</v>
+        <v>1059.828468603748</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.35455501623</v>
+        <v>1211.979570281385</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767124</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="R7" t="n">
-        <v>1112.82100505859</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="S7" t="n">
-        <v>1112.82100505859</v>
+        <v>910.0227517763827</v>
       </c>
       <c r="T7" t="n">
-        <v>1112.82100505859</v>
+        <v>910.0227517763827</v>
       </c>
       <c r="U7" t="n">
-        <v>823.6810771129035</v>
+        <v>910.0227517763827</v>
       </c>
       <c r="V7" t="n">
-        <v>568.9965889070166</v>
+        <v>655.3382635704959</v>
       </c>
       <c r="W7" t="n">
-        <v>568.9965889070166</v>
+        <v>365.9210935335353</v>
       </c>
       <c r="X7" t="n">
-        <v>568.9965889070166</v>
+        <v>365.9210935335353</v>
       </c>
       <c r="Y7" t="n">
-        <v>568.9965889070166</v>
+        <v>365.9210935335353</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.326884986528</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.326884986528</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>880.0611863797776</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>494.2729337815334</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>83.28702899192581</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>71.62268275661874</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>71.62268275661874</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2007.472083716086</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2007.472083716086</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2007.472083716086</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.92672505065</v>
+        <v>2007.472083716086</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.92672505065</v>
+        <v>1617.332751740275</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1917.843225738552</v>
+        <v>1987.564495071018</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.88070879814</v>
+        <v>1618.601978130606</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.61501019139</v>
+        <v>1603.12199917064</v>
       </c>
       <c r="E11" t="n">
-        <v>804.8267575931454</v>
+        <v>1217.333746572396</v>
       </c>
       <c r="F11" t="n">
-        <v>393.8408528035378</v>
+        <v>806.347841782788</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>391.8530338894381</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>100.1852123103652</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469183</v>
+        <v>80.45786684223394</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>317.3880320746703</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>723.2234501947032</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1263.599934653013</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1896.542330458665</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2544.340204328187</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3142.702105990708</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3618.889144608855</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3928.313032718597</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>4022.893342111697</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455661</v>
+        <v>3925.765696676223</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971441</v>
+        <v>3722.316578060834</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.29530560405</v>
+        <v>3468.832312715602</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260479</v>
+        <v>3137.769425372031</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990365</v>
+        <v>3137.769425372031</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729285</v>
+        <v>2764.303667110951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753473</v>
+        <v>2374.164335135139</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.82407519727433</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469183</v>
+        <v>80.45786684223394</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469183</v>
+        <v>80.45786684223394</v>
       </c>
       <c r="K12" t="n">
-        <v>247.739924445031</v>
+        <v>367.6362675822973</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723406</v>
+        <v>800.1056085483224</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.34150611623</v>
+        <v>957.9225392857924</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467297</v>
+        <v>1510.228841936572</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>1993.261411868773</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2361.604567899688</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.081882663713</v>
+        <v>984.1977666056988</v>
       </c>
       <c r="C13" t="n">
-        <v>835.1456997358064</v>
+        <v>815.2615836777919</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234706</v>
+        <v>665.1449442654562</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>538.7050000148802</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>391.8150525169698</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>224.3713263242215</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469183</v>
+        <v>80.45786684223394</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469183</v>
+        <v>80.45786684223394</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>143.5350566283898</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>377.027092707681</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>731.3429449977116</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1115.308455583782</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1495.578740955084</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1830.803602510215</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2094.125701226116</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2193.001193167696</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2193.001193167696</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>2193.001193167696</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370155</v>
+        <v>1972.341685948953</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.302075370155</v>
+        <v>1683.252952370917</v>
       </c>
       <c r="V13" t="n">
-        <v>1888.302075370155</v>
+        <v>1683.252952370917</v>
       </c>
       <c r="W13" t="n">
-        <v>1634.5124775355</v>
+        <v>1393.835782333956</v>
       </c>
       <c r="X13" t="n">
-        <v>1406.522926637483</v>
+        <v>1165.846231435939</v>
       </c>
       <c r="Y13" t="n">
-        <v>1185.730347493953</v>
+        <v>1165.846231435939</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358681</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200325</v>
+        <v>793.2220959708297</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364392</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5279,22 +5279,22 @@
         <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.49737412729</v>
@@ -5312,16 +5312,16 @@
         <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5358,7 @@
         <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>141.6400447072585</v>
       </c>
       <c r="L15" t="n">
         <v>141.6400447072585</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.9282680077997</v>
+        <v>848.5402036081963</v>
       </c>
       <c r="C16" t="n">
-        <v>699.9282680077997</v>
+        <v>679.6040206802894</v>
       </c>
       <c r="D16" t="n">
-        <v>549.8116285954638</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="E16" t="n">
-        <v>401.8985350130708</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130708</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
         <v>234.6843401876502</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V16" t="n">
-        <v>1619.776032916547</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W16" t="n">
-        <v>1330.358862879587</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X16" t="n">
-        <v>1102.36931198157</v>
+        <v>1147.529569298411</v>
       </c>
       <c r="Y16" t="n">
-        <v>881.5767328380394</v>
+        <v>1030.188668438436</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>328.439467536437</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>926.7369901548813</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121634</v>
+        <v>757.8008072269744</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121634</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121634</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121635</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270439</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>1147.529569298411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>926.7369901548813</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>731.1919378216778</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1323.210292073806</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1945.306255473142</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>722.0485409200915</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>553.1123579921846</v>
       </c>
       <c r="D22" t="n">
-        <v>481.4479471244852</v>
+        <v>402.9957185798487</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>903.6970057503312</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>849.3843576263198</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474264</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474264</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474264</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>94.65038286230634</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1031.032822456559</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,13 +6622,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327548</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290587</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432834</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049272</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>773.2931750925915</v>
+        <v>444.7013164925218</v>
       </c>
       <c r="E34" t="n">
-        <v>625.3800815101984</v>
+        <v>296.7882229101288</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4901340122881</v>
+        <v>149.8982754122185</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122185</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,19 +6859,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304621</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784064</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504995</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381638</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.119525808646</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,43 +7181,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356188</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.7309773356188</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7394,37 +7394,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998283</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998283</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998283</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.38435762632</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>680.4481746984131</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752806</v>
+        <v>34.48513033188152</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>230.9015698637222</v>
+        <v>231.405929448667</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780638</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.7585491187081</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>339.3578624503159</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>21.25841783849894</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>88.63818461247372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.3981108762855</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>35.2712964802825</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613728925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>50.29152613728905</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>203.8105852058689</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>102.4171615007192</v>
       </c>
     </row>
     <row r="17">
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.190246567156956e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.29152613729121</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>88.12723419594866</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194252</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613728907</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>73.62417772602116</v>
+        <v>145.3477509154595</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194215</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>84.77391660561995</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194169</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>226.4057028288551</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.257951202385252</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>84.77391660561969</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194245</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>194.8566322838565</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>138.494940240508</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.86033664601052</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393094</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26071,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>935462.1015838456</v>
+        <v>935466.1421561092</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836507.4089473158</v>
+        <v>846557.7720642592</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915359.252231405</v>
+        <v>910334.0706729329</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915359.2522314049</v>
+        <v>910334.070672933</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.0452039822</v>
+        <v>466243.5802689506</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737694</v>
+        <v>501674.8572737695</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>501674.8572737695</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
@@ -26344,16 +26344,16 @@
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103532</v>
+        <v>132571.3256199669</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196365</v>
+        <v>265633.5342698674</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357064</v>
+        <v>348407.0423979633</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>143852.0300046402</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557898</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744836</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648352</v>
+        <v>30823.28075181879</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950856</v>
+        <v>65071.59368054875</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456824</v>
+        <v>90993.97560824276</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584892</v>
+        <v>37822.10612282996</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210781.172249293</v>
+        <v>210643.2314324327</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8018.191469425932</v>
+        <v>8030.786674106925</v>
       </c>
       <c r="F4" t="n">
         <v>8110.779805506623</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8110.779805506621</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731984</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731976</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.312426732012</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731985</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731985</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>8117.312426732015</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589724</v>
+        <v>72576.9102163817</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>88006.19635166987</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-476738.5450285136</v>
       </c>
       <c r="C6" t="n">
-        <v>97764.51459963349</v>
+        <v>97359.63889639576</v>
       </c>
       <c r="D6" t="n">
-        <v>19782.41524383202</v>
+        <v>20261.79919360107</v>
       </c>
       <c r="E6" t="n">
-        <v>41361.01253670278</v>
+        <v>21611.92474162549</v>
       </c>
       <c r="F6" t="n">
-        <v>226900.6018492862</v>
+        <v>249524.0139542187</v>
       </c>
       <c r="G6" t="n">
-        <v>384059.5463200357</v>
+        <v>393376.0439588589</v>
       </c>
       <c r="H6" t="n">
-        <v>395226.7825556148</v>
+        <v>393376.0439588585</v>
       </c>
       <c r="I6" t="n">
-        <v>395226.7825556145</v>
+        <v>384373.1311727303</v>
       </c>
       <c r="J6" t="n">
-        <v>326227.6281365004</v>
+        <v>326192.8902110648</v>
       </c>
       <c r="K6" t="n">
-        <v>364521.2451891312</v>
+        <v>364368.7638783602</v>
       </c>
       <c r="L6" t="n">
-        <v>330039.402176106</v>
+        <v>330120.45094963</v>
       </c>
       <c r="M6" t="n">
-        <v>310297.1882110463</v>
+        <v>304198.0690219361</v>
       </c>
       <c r="N6" t="n">
-        <v>351444.3759971253</v>
+        <v>357369.9385073489</v>
       </c>
       <c r="O6" t="n">
-        <v>392203.48457839</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556146</v>
+        <v>395192.0446301789</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605219</v>
+        <v>717.1508385363633</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1232.028328053766</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937147</v>
+        <v>383.4773344784372</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086479</v>
+        <v>1005.723335527924</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910435</v>
+        <v>103.095824766885</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570174</v>
+        <v>216.9140535811761</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770166</v>
+        <v>297.9634359362265</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>126.01272066262</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922085</v>
+        <v>119.7634544769311</v>
       </c>
       <c r="D4" t="n">
-        <v>257.564988006324</v>
+        <v>257.1074976216015</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086091</v>
+        <v>365.1385034278854</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173591</v>
+        <v>154.4219547980828</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922085</v>
+        <v>119.7634544769311</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006324</v>
+        <v>257.1074976216015</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>365.1385034278854</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>154.4219547980825</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922085</v>
+        <v>119.7634544769311</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006324</v>
+        <v>257.1074976216015</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>365.1385034278854</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>154.4219547980828</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>387.1550383620944</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>136.1226815362434</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,16 +27515,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>119.3288428125337</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>108.0417220005577</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.0808512809107</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27594,7 +27594,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>107.7594553605225</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>254.742234001739</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.85620164799673</v>
+        <v>23.39871126327421</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936935</v>
+        <v>309.9490894518052</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.3283209164435</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>210.4754363151146</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562338877</v>
+        <v>156.2315086946331</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8018133893748</v>
+        <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339769</v>
+        <v>97.33765040199577</v>
       </c>
       <c r="I6" t="n">
-        <v>8.681117205530374</v>
+        <v>6.857319143304984</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.43696300167754</v>
+        <v>4.38436933829631</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>98.71639098970542</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>48.44325314110966</v>
+        <v>150.7292459486107</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983621</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484899297496</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>45.53777544574098</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>31.83707827026203</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>215.8381624609854</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876468</v>
+        <v>2.883018446377338</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207363</v>
+        <v>29.52571266396192</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552051</v>
+        <v>111.1475686539624</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845818</v>
+        <v>244.6925868632188</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848628</v>
+        <v>366.7307576983716</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214586</v>
+        <v>454.9619334766921</v>
       </c>
       <c r="M5" t="n">
-        <v>505.954816793098</v>
+        <v>506.232812772455</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882857</v>
+        <v>514.4241889332247</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521578</v>
+        <v>485.75617425706</v>
       </c>
       <c r="P5" t="n">
-        <v>414.353990294895</v>
+        <v>414.5816563621194</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161314</v>
+        <v>311.333558251231</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266041</v>
+        <v>181.1004074822506</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819758</v>
+        <v>65.69678284682365</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320174</v>
+        <v>12.6204132490168</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501174</v>
+        <v>0.2306414757101869</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54170377383584</v>
+        <v>1.542550860248027</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309877</v>
+        <v>14.89779383450068</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882167</v>
+        <v>53.10975549538163</v>
       </c>
       <c r="J6" t="n">
-        <v>145.657197334201</v>
+        <v>145.7372284236963</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812022</v>
+        <v>249.088136060314</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234353</v>
+        <v>334.9297383183271</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249844</v>
+        <v>390.8472070023179</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118047</v>
+        <v>401.1917695695076</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757578</v>
+        <v>367.0120899819066</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160737</v>
+        <v>294.5595585678886</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584135</v>
+        <v>196.9052641958709</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096559</v>
+        <v>95.77346481434682</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313498</v>
+        <v>28.65220567171223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943579</v>
+        <v>6.217562458631298</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576211</v>
+        <v>0.1014836092268439</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797662</v>
+        <v>1.293222823590163</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265559</v>
+        <v>11.49792655882891</v>
       </c>
       <c r="I7" t="n">
-        <v>38.8693805642788</v>
+        <v>38.89073727669328</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419471</v>
+        <v>91.43085362782453</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574011</v>
+        <v>150.2489789589298</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232816</v>
+        <v>192.2669641544867</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970554</v>
+        <v>202.7185558833198</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291733</v>
+        <v>197.8983617226657</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981278</v>
+        <v>182.7911678289078</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402554</v>
+        <v>156.4094222276684</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667388</v>
+        <v>108.2897766189909</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572033</v>
+        <v>58.14800077706314</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861016</v>
+        <v>22.53734684383947</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499101</v>
+        <v>5.525588428067059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169076</v>
+        <v>0.0705394267412817</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.952877700718653</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>50.72365875248492</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>190.945817556956</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>420.3693037513701</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>630.0246168227908</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>781.6012477561594</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>869.6819865663148</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>883.7543503334817</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>834.5041726969605</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>712.2300044604686</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>534.8550718034818</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>311.1212038677683</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>112.8637006051264</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.68122213489591</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3962302160574921</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.650023196191119</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.59364507900371</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>91.23983372851002</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>308.7796796009642</v>
+        <v>427.9206316410896</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>575.3920979273744</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>301.5450750709779</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>689.2268662760403</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>630.5079312446475</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>506.0382013849515</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>338.2731364120453</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>49.22301857837448</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.68145314605104</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1743436313283632</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.221690427637938</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.75284762027187</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>66.81229031478456</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>157.0735132340022</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>258.1200333201168</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>330.304775032644</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>348.2600731250997</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>339.9792269857222</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>314.0258433537697</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>268.7033586299556</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>186.0362775361186</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>99.89528050088398</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.71800499801751</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.492677281725733</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1211831142347968</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>187.1630768341347</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>332.3799372434567</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789554</v>
+        <v>63.64668233653251</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398823</v>
+        <v>146.640906653391</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514714</v>
+        <v>219.1955185067048</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658253</v>
+        <v>275.8865795451823</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916948</v>
+        <v>285.0111253366338</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304711</v>
+        <v>255.6579628353733</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396254</v>
+        <v>183.3486606068499</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.8569006416819</v>
+        <v>89.02786837678147</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753429</v>
+        <v>18.89960175702956</v>
       </c>
       <c r="K6" t="n">
-        <v>342.0114810705654</v>
+        <v>342.652626534622</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435611</v>
+        <v>196.3753585384529</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029661</v>
+        <v>248.7131730802996</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284713</v>
+        <v>269.8500574861744</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313134</v>
+        <v>224.4158455374621</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017434</v>
+        <v>160.5851511535583</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239198</v>
+        <v>56.92349010984941</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315182</v>
+        <v>127.979487133047</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835977</v>
+        <v>219.8569894148028</v>
       </c>
       <c r="M7" t="n">
-        <v>242.191110658896</v>
+        <v>242.3024328451604</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084019</v>
+        <v>242.0305341018943</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121675</v>
+        <v>207.3762957429475</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051489</v>
+        <v>153.6879814925619</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504442</v>
+        <v>22.12773336729647</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215487</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35267,13 +35267,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>239.3233992246838</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>409.9347657778102</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>545.8348327861722</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>639.3357533390421</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>654.3412867368909</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>604.4059612752737</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>480.9970087051991</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>312.5493819290323</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>95.53566605363619</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9382406266052</v>
+        <v>290.0791926667306</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>436.8377181475002</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>159.4110411489596</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>557.885154192707</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>487.911686800203</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>372.0637939706212</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>198.2913623260238</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>63.71433311732943</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>235.8505414942339</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>357.8948002929602</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>387.8439500869403</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>384.1113993649508</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>338.6109712678094</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>265.9819178948491</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>99.87423428442425</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>49.32163785977574</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>189.7836927990123</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
